--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3.034777666666667</v>
+      </c>
+      <c r="H2">
+        <v>9.104333</v>
+      </c>
+      <c r="I2">
+        <v>0.2502264227183869</v>
+      </c>
+      <c r="J2">
+        <v>0.2502264227183869</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>1.399915</v>
-      </c>
-      <c r="H2">
-        <v>4.199745</v>
-      </c>
-      <c r="I2">
-        <v>0.1420321708872511</v>
-      </c>
-      <c r="J2">
-        <v>0.1420321708872511</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>46.25093466666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N2">
-        <v>138.752804</v>
+        <v>0.029549</v>
       </c>
       <c r="O2">
-        <v>0.9569015955251317</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P2">
-        <v>0.9569015955251318</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q2">
-        <v>64.74737720388667</v>
+        <v>0.02989154842411111</v>
       </c>
       <c r="R2">
-        <v>582.7263948349799</v>
+        <v>0.269023935817</v>
       </c>
       <c r="S2">
-        <v>0.1359108109379087</v>
+        <v>5.039250663336137E-05</v>
       </c>
       <c r="T2">
-        <v>0.1359108109379087</v>
+        <v>5.039250663336137E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H3">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I3">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J3">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.066797333333334</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N3">
-        <v>6.200392000000001</v>
+        <v>138.752804</v>
       </c>
       <c r="O3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q3">
-        <v>2.893340588893334</v>
+        <v>140.3613035888591</v>
       </c>
       <c r="R3">
-        <v>26.04006530004</v>
+        <v>1263.251732299732</v>
       </c>
       <c r="S3">
-        <v>0.006073392973398374</v>
+        <v>0.2366273510429283</v>
       </c>
       <c r="T3">
-        <v>0.006073392973398374</v>
+        <v>0.2366273510429283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H4">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I4">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J4">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01632333333333333</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N4">
-        <v>0.04897</v>
+        <v>7.823689</v>
       </c>
       <c r="O4">
-        <v>0.0003377190931065126</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P4">
-        <v>0.0003377190931065127</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q4">
-        <v>0.02285127918333333</v>
+        <v>7.914385549381889</v>
       </c>
       <c r="R4">
-        <v>0.20566151265</v>
+        <v>71.229469944437</v>
       </c>
       <c r="S4">
-        <v>4.796697594399165E-05</v>
+        <v>0.01334242444176982</v>
       </c>
       <c r="T4">
-        <v>4.796697594399166E-05</v>
+        <v>0.01334242444176982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.864004666666666</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H5">
-        <v>17.592014</v>
+        <v>9.104333</v>
       </c>
       <c r="I5">
-        <v>0.5949484882293836</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J5">
-        <v>0.5949484882293836</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>46.25093466666667</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N5">
-        <v>138.752804</v>
+        <v>0.120943</v>
       </c>
       <c r="O5">
-        <v>0.9569015955251317</v>
+        <v>0.0008242723722565416</v>
       </c>
       <c r="P5">
-        <v>0.9569015955251318</v>
+        <v>0.0008242723722565415</v>
       </c>
       <c r="Q5">
-        <v>271.2156967230284</v>
+        <v>0.1223450384465556</v>
       </c>
       <c r="R5">
-        <v>2440.941270507256</v>
+        <v>1.101105346019</v>
       </c>
       <c r="S5">
-        <v>0.5693071576419622</v>
+        <v>0.0002062547270553529</v>
       </c>
       <c r="T5">
-        <v>0.5693071576419623</v>
+        <v>0.0002062547270553529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>17.592014</v>
       </c>
       <c r="I6">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J6">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.066797333333334</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N6">
-        <v>6.200392000000001</v>
+        <v>0.029549</v>
       </c>
       <c r="O6">
-        <v>0.04276068538176182</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P6">
-        <v>0.04276068538176182</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q6">
-        <v>12.11970920772089</v>
+        <v>0.05775849129844444</v>
       </c>
       <c r="R6">
-        <v>109.077382869488</v>
+        <v>0.5198264216859999</v>
       </c>
       <c r="S6">
-        <v>0.0254404051235315</v>
+        <v>9.737184285649327E-05</v>
       </c>
       <c r="T6">
-        <v>0.0254404051235315</v>
+        <v>9.737184285649327E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>17.592014</v>
       </c>
       <c r="I7">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J7">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01632333333333333</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N7">
-        <v>0.04897</v>
+        <v>138.752804</v>
       </c>
       <c r="O7">
-        <v>0.0003377190931065126</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P7">
-        <v>0.0003377190931065127</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q7">
-        <v>0.09572010284222221</v>
+        <v>271.2156967230284</v>
       </c>
       <c r="R7">
-        <v>0.8614809255799999</v>
+        <v>2440.941270507256</v>
       </c>
       <c r="S7">
-        <v>0.0002009254638899181</v>
+        <v>0.4572275280715358</v>
       </c>
       <c r="T7">
-        <v>0.0002009254638899182</v>
+        <v>0.4572275280715358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.287676333333333</v>
+        <v>5.864004666666666</v>
       </c>
       <c r="H8">
-        <v>6.863029</v>
+        <v>17.592014</v>
       </c>
       <c r="I8">
-        <v>0.2321024032964286</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J8">
-        <v>0.2321024032964286</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.25093466666667</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N8">
-        <v>138.752804</v>
+        <v>7.823689</v>
       </c>
       <c r="O8">
-        <v>0.9569015955251317</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P8">
-        <v>0.9569015955251318</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q8">
-        <v>105.8071686314795</v>
+        <v>15.29271626884955</v>
       </c>
       <c r="R8">
-        <v>952.2645176833159</v>
+        <v>137.634446419646</v>
       </c>
       <c r="S8">
-        <v>0.2220991600395701</v>
+        <v>0.0257811437228358</v>
       </c>
       <c r="T8">
-        <v>0.2220991600395702</v>
+        <v>0.0257811437228358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.287676333333333</v>
+        <v>5.864004666666666</v>
       </c>
       <c r="H9">
-        <v>6.863029</v>
+        <v>17.592014</v>
       </c>
       <c r="I9">
-        <v>0.2321024032964286</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J9">
-        <v>0.2321024032964286</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.066797333333334</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N9">
-        <v>6.200392000000001</v>
+        <v>0.120943</v>
       </c>
       <c r="O9">
-        <v>0.04276068538176182</v>
+        <v>0.0008242723722565416</v>
       </c>
       <c r="P9">
-        <v>0.04276068538176182</v>
+        <v>0.0008242723722565415</v>
       </c>
       <c r="Q9">
-        <v>4.728163345263112</v>
+        <v>0.2364034388002222</v>
       </c>
       <c r="R9">
-        <v>42.55347010736801</v>
+        <v>2.127630949202</v>
       </c>
       <c r="S9">
-        <v>0.009924857843709382</v>
+        <v>0.0003985394697144697</v>
       </c>
       <c r="T9">
-        <v>0.009924857843709384</v>
+        <v>0.0003985394697144697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H10">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I10">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J10">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01632333333333333</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N10">
-        <v>0.04897</v>
+        <v>0.029549</v>
       </c>
       <c r="O10">
-        <v>0.0003377190931065126</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P10">
-        <v>0.0003377190931065127</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q10">
-        <v>0.03734250334777777</v>
+        <v>0.02526414875833333</v>
       </c>
       <c r="R10">
-        <v>0.33608253013</v>
+        <v>0.227377338825</v>
       </c>
       <c r="S10">
-        <v>7.838541314911192E-05</v>
+        <v>4.259142971876339E-05</v>
       </c>
       <c r="T10">
-        <v>7.838541314911194E-05</v>
+        <v>4.259142971876339E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3047273333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H11">
-        <v>0.9141819999999999</v>
+        <v>7.694925</v>
       </c>
       <c r="I11">
-        <v>0.03091693758693657</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J11">
-        <v>0.03091693758693657</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>138.752804</v>
       </c>
       <c r="O11">
-        <v>0.9569015955251317</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P11">
-        <v>0.9569015955251318</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q11">
-        <v>14.09392398514755</v>
+        <v>118.6324911466333</v>
       </c>
       <c r="R11">
-        <v>126.845315866328</v>
+        <v>1067.6924203197</v>
       </c>
       <c r="S11">
-        <v>0.02958446690569052</v>
+        <v>0.1999959490963265</v>
       </c>
       <c r="T11">
-        <v>0.02958446690569053</v>
+        <v>0.1999959490963265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3047273333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H12">
-        <v>0.9141819999999999</v>
+        <v>7.694925</v>
       </c>
       <c r="I12">
-        <v>0.03091693758693657</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J12">
-        <v>0.03091693758693657</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.066797333333334</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N12">
-        <v>6.200392000000001</v>
+        <v>7.823689</v>
       </c>
       <c r="O12">
-        <v>0.04276068538176182</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P12">
-        <v>0.04276068538176182</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q12">
-        <v>0.6298096399271111</v>
+        <v>6.689188897591666</v>
       </c>
       <c r="R12">
-        <v>5.668286759344</v>
+        <v>60.20270007832499</v>
       </c>
       <c r="S12">
-        <v>0.001322029441122561</v>
+        <v>0.01127693323581042</v>
       </c>
       <c r="T12">
-        <v>0.001322029441122561</v>
+        <v>0.01127693323581042</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3047273333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H13">
-        <v>0.9141819999999999</v>
+        <v>7.694925</v>
       </c>
       <c r="I13">
-        <v>0.03091693758693657</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J13">
-        <v>0.03091693758693657</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01632333333333333</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N13">
-        <v>0.04897</v>
+        <v>0.120943</v>
       </c>
       <c r="O13">
-        <v>0.0003377190931065126</v>
+        <v>0.0008242723722565416</v>
       </c>
       <c r="P13">
-        <v>0.0003377190931065127</v>
+        <v>0.0008242723722565415</v>
       </c>
       <c r="Q13">
-        <v>0.004974165837777777</v>
+        <v>0.1034052571416667</v>
       </c>
       <c r="R13">
-        <v>0.04476749254</v>
+        <v>0.9306473142749999</v>
       </c>
       <c r="S13">
-        <v>1.044124012349087E-05</v>
+        <v>0.0001743251982969441</v>
       </c>
       <c r="T13">
-        <v>1.044124012349087E-05</v>
+        <v>0.000174325198296944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6643690000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.993107</v>
+      </c>
+      <c r="I14">
+        <v>0.05477919521451775</v>
+      </c>
+      <c r="J14">
+        <v>0.05477919521451775</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.009849666666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.029549</v>
+      </c>
+      <c r="O14">
+        <v>0.0002013876315934659</v>
+      </c>
+      <c r="P14">
+        <v>0.0002013876315934659</v>
+      </c>
+      <c r="Q14">
+        <v>0.006543813193666668</v>
+      </c>
+      <c r="R14">
+        <v>0.058894318743</v>
+      </c>
+      <c r="S14">
+        <v>1.103185238484785E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.103185238484785E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6643690000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.993107</v>
+      </c>
+      <c r="I15">
+        <v>0.05477919521451775</v>
+      </c>
+      <c r="J15">
+        <v>0.05477919521451775</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.25093466666667</v>
+      </c>
+      <c r="N15">
+        <v>138.752804</v>
+      </c>
+      <c r="O15">
+        <v>0.9456529349389956</v>
+      </c>
+      <c r="P15">
+        <v>0.9456529349389956</v>
+      </c>
+      <c r="Q15">
+        <v>30.72768721355867</v>
+      </c>
+      <c r="R15">
+        <v>276.549184922028</v>
+      </c>
+      <c r="S15">
+        <v>0.0518021067282049</v>
+      </c>
+      <c r="T15">
+        <v>0.05180210672820489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6643690000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.993107</v>
+      </c>
+      <c r="I16">
+        <v>0.05477919521451775</v>
+      </c>
+      <c r="J16">
+        <v>0.05477919521451775</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.607896333333333</v>
+      </c>
+      <c r="N16">
+        <v>7.823689</v>
+      </c>
+      <c r="O16">
+        <v>0.05332140505715427</v>
+      </c>
+      <c r="P16">
+        <v>0.05332140505715428</v>
+      </c>
+      <c r="Q16">
+        <v>1.732605479080334</v>
+      </c>
+      <c r="R16">
+        <v>15.593449311723</v>
+      </c>
+      <c r="S16">
+        <v>0.002920903656738228</v>
+      </c>
+      <c r="T16">
+        <v>0.002920903656738228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6643690000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.993107</v>
+      </c>
+      <c r="I17">
+        <v>0.05477919521451775</v>
+      </c>
+      <c r="J17">
+        <v>0.05477919521451775</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.120943</v>
+      </c>
+      <c r="O17">
+        <v>0.0008242723722565416</v>
+      </c>
+      <c r="P17">
+        <v>0.0008242723722565415</v>
+      </c>
+      <c r="Q17">
+        <v>0.02678359332233334</v>
+      </c>
+      <c r="R17">
+        <v>0.241052339901</v>
+      </c>
+      <c r="S17">
+        <v>4.515297718977474E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.515297718977473E-05</v>
       </c>
     </row>
   </sheetData>
